--- a/flyers/Mechelen_2025-26.xlsx
+++ b/flyers/Mechelen_2025-26.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joachim/Sites/EddyPresent18/flyers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CC2477-B15E-9245-86ED-77015915AD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC0706A-F4B1-5447-9143-A87BCBDE56D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,8 +470,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -493,7 +493,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A97" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A24" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2016,8 +2016,8 @@
       <c r="B44" s="4">
         <v>7</v>
       </c>
-      <c r="C44" s="34" t="s">
-        <v>10</v>
+      <c r="C44" s="38" t="s">
+        <v>11</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>23</v>
@@ -2076,11 +2076,11 @@
       <c r="B46" s="4">
         <v>9</v>
       </c>
-      <c r="C46" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>10</v>
+      <c r="C46" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>11</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="3" t="s">
@@ -2236,8 +2236,8 @@
       <c r="B51" s="4">
         <v>14</v>
       </c>
-      <c r="C51" s="38" t="s">
-        <v>11</v>
+      <c r="C51" s="34" t="s">
+        <v>10</v>
       </c>
       <c r="D51" s="35" t="s">
         <v>23</v>
@@ -2296,11 +2296,11 @@
       <c r="B53" s="4">
         <v>16</v>
       </c>
-      <c r="C53" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>11</v>
+      <c r="C53" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>10</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="3" t="s">
